--- a/6.06-6.12.xlsx
+++ b/6.06-6.12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -386,6 +386,144 @@
   </si>
   <si>
     <t>魔法少女杜芸松</t>
+  </si>
+  <si>
+    <t>折扇浪漫</t>
+  </si>
+  <si>
+    <t>青丝枫凌</t>
+  </si>
+  <si>
+    <t>七情剑伶慕容英</t>
+  </si>
+  <si>
+    <t>墨河</t>
+  </si>
+  <si>
+    <t>花儿盛盛开</t>
+  </si>
+  <si>
+    <t>椛灯</t>
+  </si>
+  <si>
+    <t>吕小栋</t>
+  </si>
+  <si>
+    <t>女神菲奥娜</t>
+  </si>
+  <si>
+    <t>儒丶张良</t>
+  </si>
+  <si>
+    <t>小阿淮呀</t>
+  </si>
+  <si>
+    <t>池小猫</t>
+  </si>
+  <si>
+    <t>雲墨秋</t>
+  </si>
+  <si>
+    <t>＊下水道的白</t>
+  </si>
+  <si>
+    <t>微微醉的葫芦酱</t>
+  </si>
+  <si>
+    <t>风语风＊</t>
+  </si>
+  <si>
+    <t>水影悠兰</t>
+  </si>
+  <si>
+    <t>五六柒</t>
+  </si>
+  <si>
+    <t>独孤沐白</t>
+  </si>
+  <si>
+    <t>拌饭萌面酥</t>
+  </si>
+  <si>
+    <t>古巷烟雨断桥殇</t>
+  </si>
+  <si>
+    <t>踏马清月夜</t>
+  </si>
+  <si>
+    <t>白芹</t>
+  </si>
+  <si>
+    <t>在下唐言</t>
+  </si>
+  <si>
+    <t>花兮兮兮兮</t>
+  </si>
+  <si>
+    <t>慕容飞羽</t>
+  </si>
+  <si>
+    <t>冷晓汐丶</t>
+  </si>
+  <si>
+    <t>凯贼阔里</t>
+  </si>
+  <si>
+    <t>芝麻花生馅儿饺</t>
+  </si>
+  <si>
+    <t>丶天蓝色</t>
+  </si>
+  <si>
+    <t>我是天香的啊</t>
+  </si>
+  <si>
+    <t>浮生半日</t>
+  </si>
+  <si>
+    <t>永恒只为等待</t>
+  </si>
+  <si>
+    <t>倾国不倾城</t>
+  </si>
+  <si>
+    <t>唐糖～</t>
+  </si>
+  <si>
+    <t>陌路莫回</t>
+  </si>
+  <si>
+    <t>粉嫩嫩的香蕉酱</t>
+  </si>
+  <si>
+    <t>薄霭</t>
+  </si>
+  <si>
+    <t>在下唐银</t>
+  </si>
+  <si>
+    <t>荆轲已逝高渐离</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>那年今若、</t>
+  </si>
+  <si>
+    <t>木易丶凝烟</t>
+  </si>
+  <si>
+    <t>男人应有的自豪</t>
+  </si>
+  <si>
+    <t>FateScorpio</t>
+  </si>
+  <si>
+    <t>洪时雪</t>
+  </si>
+  <si>
+    <t>青城爱未恋</t>
   </si>
 </sst>
 </file>
@@ -443,7 +581,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -463,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,6 +607,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,46 +895,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -841,12 +982,758 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -872,21 +1759,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -899,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13:S13"/>
     </sheetView>
   </sheetViews>
@@ -920,1324 +1807,1324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <v>11</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
         <v>3</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>18</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>48</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>9</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>2</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>9</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>3</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>19</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>6</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>8</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>7</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>33</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>6</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>35</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>46</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
         <v>6</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <v>1</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
         <v>12</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>6</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>1</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>10</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>27</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>11</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>43</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>8</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>4</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>7</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>7</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>11</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>15</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>14</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>29</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>1</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>8</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>14</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>1</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>10</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>22</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>3</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>29</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>3</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>11</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>22</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
         <v>2</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="11">
         <v>9</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>16</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>7</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>29</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
         <v>2</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>2</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>30</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>11</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>2</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>11</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="10">
         <v>24</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="10">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
         <v>4</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>41</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>1</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12" t="s">
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>4</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>6</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>26</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>46</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>283</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
         <v>3</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="10">
         <v>13</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="10">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
         <v>5</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <v>4</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="10">
         <v>6</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12">
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>3</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>18</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <v>1</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <v>2</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="12" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="10">
         <v>110</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="10">
         <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>53</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>272</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <v>2</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="11"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>1</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>4</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
         <v>2</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <v>4</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="10">
         <v>8</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>2</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="10">
         <v>9</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <v>2</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="10">
         <v>20</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
         <v>13</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="13"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>6</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <v>21</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <v>4</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="10">
         <v>20</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12">
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <v>4</v>
       </c>
-      <c r="K33" s="13">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="11"/>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
         <v>3</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="10">
         <v>6</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="10">
         <v>20</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="10">
         <v>10</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="10">
         <v>34</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="10">
         <v>5</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="10">
         <v>12</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="10">
         <v>2</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="10">
         <v>13</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J39" s="12">
-        <v>0</v>
-      </c>
-      <c r="K39" s="12">
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
         <v>6</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>3</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>23</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="13">
-        <v>0</v>
-      </c>
-      <c r="K41" s="13">
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
         <v>10</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>4</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="11">
         <v>33</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="10">
         <v>88</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="10">
         <v>448</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="13"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2261,40 +3148,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2302,31 +3189,31 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>SUM(B2:D2)</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
         <f>IF($E2&gt;6,6,$E2)</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
         <f>SUM(G2:G140)</f>
-        <v>3</v>
-      </c>
-      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
         <f>SUM(E2:E140)-I2</f>
         <v>0</v>
       </c>
@@ -2355,46 +3242,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3">
         <f>SUM(G2:G150)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
         <v>0</v>
       </c>
@@ -2423,58 +3310,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <f>SUM(G2:G150)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2491,53 +3378,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="4" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="I2" s="4">
+      <c r="B2" s="5"/>
+      <c r="I2" s="3">
         <f>SUM(G2:G150)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
         <v>0</v>
       </c>
@@ -2558,42 +3445,42 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <f>('逐梦-箱子'!$I$2)</f>
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <f>('如梦-箱子'!$I$2)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>('若梦-箱子'!$I$2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>('何梦-箱子'!$I$2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>SUM(A2:D2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/6.06-6.12.xlsx
+++ b/6.06-6.12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -524,6 +524,84 @@
   </si>
   <si>
     <t>青城爱未恋</t>
+  </si>
+  <si>
+    <t>临风望月爱啪啪</t>
+  </si>
+  <si>
+    <t>丶初馨</t>
+  </si>
+  <si>
+    <t>冷清语</t>
+  </si>
+  <si>
+    <t>南宫絮语</t>
+  </si>
+  <si>
+    <t>唯我一剑</t>
+  </si>
+  <si>
+    <t>叶清欢</t>
+  </si>
+  <si>
+    <t>机智勇敢的小兔</t>
+  </si>
+  <si>
+    <t>城南穷鬼赵四</t>
+  </si>
+  <si>
+    <t>开封拍卖行</t>
+  </si>
+  <si>
+    <t>榕月</t>
+  </si>
+  <si>
+    <t>方得始終</t>
+  </si>
+  <si>
+    <t>彡电竞丿柯南乄</t>
+  </si>
+  <si>
+    <t>旧人谙</t>
+  </si>
+  <si>
+    <t>昔昔</t>
+  </si>
+  <si>
+    <t>艾尔艾路弗</t>
+  </si>
+  <si>
+    <t>鱼香</t>
+  </si>
+  <si>
+    <t>浩浩丶浩</t>
+  </si>
+  <si>
+    <t>晚街听风</t>
+  </si>
+  <si>
+    <t>机智勇敢的小猪</t>
+  </si>
+  <si>
+    <t>紫雨幽雲</t>
+  </si>
+  <si>
+    <t>梦觞丶</t>
+  </si>
+  <si>
+    <t>流浪的小花狼</t>
+  </si>
+  <si>
+    <t>青衫逝</t>
+  </si>
+  <si>
+    <t>青骢绝骑塑天荒</t>
+  </si>
+  <si>
+    <t>风暖伤</t>
+  </si>
+  <si>
+    <t>2016-06-08-悦狗</t>
   </si>
 </sst>
 </file>
@@ -579,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -613,6 +691,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1784,26 +1869,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:S13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2873,7 +2954,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2896,7 +2977,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2919,7 +3000,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2942,7 +3023,7 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2965,7 +3046,7 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2988,7 +3069,7 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3011,7 +3092,7 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3034,7 +3115,7 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3057,7 +3138,7 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3080,7 +3161,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3103,7 +3184,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3126,8 +3207,917 @@
       <c r="N43" s="9"/>
       <c r="O43" s="11"/>
     </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="15">
+        <v>12</v>
+      </c>
+      <c r="C47" s="15">
+        <v>47</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="15">
+        <v>7</v>
+      </c>
+      <c r="G47" s="15">
+        <v>86</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="15">
+        <v>6</v>
+      </c>
+      <c r="K47" s="15">
+        <v>84</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" s="15">
+        <v>20</v>
+      </c>
+      <c r="O47" s="15">
+        <v>71</v>
+      </c>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="16">
+        <v>7</v>
+      </c>
+      <c r="C48" s="16">
+        <v>61</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="15">
+        <v>8</v>
+      </c>
+      <c r="G48" s="15">
+        <v>76</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="16">
+        <v>9</v>
+      </c>
+      <c r="K48" s="16">
+        <v>36</v>
+      </c>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="16">
+        <v>5</v>
+      </c>
+      <c r="O48" s="16">
+        <v>60</v>
+      </c>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="15">
+        <v>7</v>
+      </c>
+      <c r="C49" s="15">
+        <v>31</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="15">
+        <v>2</v>
+      </c>
+      <c r="G49" s="15">
+        <v>45</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="15">
+        <v>4</v>
+      </c>
+      <c r="K49" s="15">
+        <v>43</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N49" s="16">
+        <v>0</v>
+      </c>
+      <c r="O49" s="16">
+        <v>11</v>
+      </c>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="15">
+        <v>2</v>
+      </c>
+      <c r="C50" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="16">
+        <v>3</v>
+      </c>
+      <c r="G50" s="16">
+        <v>12</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50" s="15">
+        <v>9</v>
+      </c>
+      <c r="K50" s="15">
+        <v>27</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0</v>
+      </c>
+      <c r="O50" s="15">
+        <v>7</v>
+      </c>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="15">
+        <v>2</v>
+      </c>
+      <c r="C51" s="15">
+        <v>6</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>7</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="15">
+        <v>6</v>
+      </c>
+      <c r="K51" s="15">
+        <v>27</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16">
+        <v>5</v>
+      </c>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="15">
+        <v>1</v>
+      </c>
+      <c r="C52" s="15">
+        <v>8</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>2</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="15">
+        <v>3</v>
+      </c>
+      <c r="K52" s="15">
+        <v>26</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" s="16">
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <v>2</v>
+      </c>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="15">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15">
+        <v>5</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>2</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="16">
+        <v>2</v>
+      </c>
+      <c r="K53" s="16">
+        <v>25</v>
+      </c>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N53" s="16">
+        <v>0</v>
+      </c>
+      <c r="O53" s="16">
+        <v>2</v>
+      </c>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="15">
+        <v>0</v>
+      </c>
+      <c r="C54" s="15">
+        <v>8</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" s="15">
+        <v>3</v>
+      </c>
+      <c r="K54" s="15">
+        <v>18</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="15">
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
+        <v>1</v>
+      </c>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="15">
+        <v>1</v>
+      </c>
+      <c r="C55" s="15">
+        <v>4</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="16">
+        <v>3</v>
+      </c>
+      <c r="K55" s="16">
+        <v>18</v>
+      </c>
+      <c r="L55" s="14"/>
+      <c r="M55" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N55" s="16">
+        <v>0</v>
+      </c>
+      <c r="O55" s="16">
+        <v>1</v>
+      </c>
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="15">
+        <v>2</v>
+      </c>
+      <c r="C56" s="15">
+        <v>1</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" s="16">
+        <v>3</v>
+      </c>
+      <c r="K56" s="16">
+        <v>14</v>
+      </c>
+      <c r="L56" s="14"/>
+      <c r="M56" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <v>1</v>
+      </c>
+      <c r="P56" s="14"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="15">
+        <v>1</v>
+      </c>
+      <c r="C57" s="15">
+        <v>4</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
+      <c r="K57" s="15">
+        <v>13</v>
+      </c>
+      <c r="L57" s="14"/>
+      <c r="M57" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0</v>
+      </c>
+      <c r="O57" s="15">
+        <v>1</v>
+      </c>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="15">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15">
+        <v>5</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" s="15">
+        <v>3</v>
+      </c>
+      <c r="K58" s="15">
+        <v>3</v>
+      </c>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="15">
+        <v>25</v>
+      </c>
+      <c r="O58" s="15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="15">
+        <v>20</v>
+      </c>
+      <c r="G59" s="15">
+        <v>235</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0</v>
+      </c>
+      <c r="K59" s="15">
+        <v>10</v>
+      </c>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="15">
+        <v>1</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" s="15">
+        <v>0</v>
+      </c>
+      <c r="K60" s="15">
+        <v>8</v>
+      </c>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>4</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="16">
+        <v>2</v>
+      </c>
+      <c r="K61" s="16">
+        <v>1</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="15">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="15">
+        <v>1</v>
+      </c>
+      <c r="K62" s="15">
+        <v>4</v>
+      </c>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="15">
+        <v>0</v>
+      </c>
+      <c r="C63" s="15">
+        <v>3</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0</v>
+      </c>
+      <c r="K63" s="15">
+        <v>5</v>
+      </c>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="15">
+        <v>0</v>
+      </c>
+      <c r="C64" s="15">
+        <v>2</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J64" s="15">
+        <v>1</v>
+      </c>
+      <c r="K64" s="15">
+        <v>1</v>
+      </c>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0</v>
+      </c>
+      <c r="C65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="15">
+        <v>0</v>
+      </c>
+      <c r="C66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J66" s="15">
+        <v>0</v>
+      </c>
+      <c r="K66" s="15">
+        <v>2</v>
+      </c>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="16">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16">
+        <v>1</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J67" s="16">
+        <v>0</v>
+      </c>
+      <c r="K67" s="16">
+        <v>2</v>
+      </c>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="15">
+        <v>39</v>
+      </c>
+      <c r="C68" s="15">
+        <v>206</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" s="16">
+        <v>0</v>
+      </c>
+      <c r="K68" s="16">
+        <v>2</v>
+      </c>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J69" s="15">
+        <v>0</v>
+      </c>
+      <c r="K69" s="15">
+        <v>1</v>
+      </c>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="15">
+        <v>57</v>
+      </c>
+      <c r="K70" s="15">
+        <v>370</v>
+      </c>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <sortState ref="E47:H58">
+    <sortCondition descending="1" ref="H47:H58"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A45:O45"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
@@ -3198,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:O$151,$A2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="3">

--- a/6.06-6.12.xlsx
+++ b/6.06-6.12.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="207">
   <si>
     <t>ID</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>KILL</t>
   </si>
   <si>
@@ -602,6 +599,60 @@
   </si>
   <si>
     <t>2016-06-08-悦狗</t>
+  </si>
+  <si>
+    <t>歌风路丶三狗蛋</t>
+  </si>
+  <si>
+    <t>伊贰叁</t>
+  </si>
+  <si>
+    <t>慕容靉</t>
+  </si>
+  <si>
+    <t>丶忍野咩咩</t>
+  </si>
+  <si>
+    <t>沐浠尘</t>
+  </si>
+  <si>
+    <t>只会躺不输出丶</t>
+  </si>
+  <si>
+    <t>い楓ゞ妖い</t>
+  </si>
+  <si>
+    <t>万心忧</t>
+  </si>
+  <si>
+    <t>丿几度度丶</t>
+  </si>
+  <si>
+    <t>放肆流逝的年华</t>
+  </si>
+  <si>
+    <t>淺笙</t>
+  </si>
+  <si>
+    <t>小阿鏡</t>
+  </si>
+  <si>
+    <t>等我出轻语</t>
+  </si>
+  <si>
+    <t>那年红颜</t>
+  </si>
+  <si>
+    <t>树儿高高长</t>
+  </si>
+  <si>
+    <t>刀光华血</t>
+  </si>
+  <si>
+    <t>骄傲的龙王丶</t>
+  </si>
+  <si>
+    <t>2016-06-09-蘇狗</t>
   </si>
 </sst>
 </file>
@@ -657,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -679,6 +730,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,42 +1043,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1029,7 +1094,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -1038,7 +1103,7 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -1071,10 +1136,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+        <v>117</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1082,7 +1156,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1090,7 +1176,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1098,7 +1196,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="12">
+        <v>4</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1106,7 +1216,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1114,7 +1236,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="12">
+        <v>6</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1122,7 +1256,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="12">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1130,7 +1276,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="12">
+        <v>8</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1138,7 +1296,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="12">
+        <v>9</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1146,7 +1316,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1154,7 +1336,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="E13" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="12">
+        <v>11</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1162,7 +1356,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E14" s="12">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="12">
+        <v>12</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1170,7 +1376,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="E15" s="12">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="12">
+        <v>13</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1178,519 +1396,1131 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E16" s="12">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="12">
+        <v>14</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="12">
+        <v>15</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E18" s="12">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="12">
+        <v>16</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="12">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I19" s="12">
+        <v>17</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E20" s="12">
+        <v>18</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="12">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E21" s="12">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="12">
+        <v>19</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E22" s="12">
+        <v>20</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" s="12">
+        <v>20</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E23" s="12">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="12">
+        <v>21</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E24" s="12">
+        <v>22</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="12">
+        <v>22</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E25" s="12">
+        <v>23</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="12">
+        <v>23</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E26" s="12">
+        <v>24</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="12">
+        <v>24</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E27" s="12">
+        <v>25</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="12">
+        <v>25</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E28" s="12">
+        <v>26</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="12">
+        <v>26</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E29" s="12">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="12">
+        <v>27</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E30" s="12">
+        <v>28</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="12">
+        <v>28</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E31" s="12">
+        <v>29</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="12">
+        <v>29</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E32" s="12">
+        <v>30</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="12">
+        <v>30</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E33" s="12">
+        <v>31</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="12">
+        <v>31</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E34" s="12">
+        <v>32</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="12">
+        <v>32</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E35" s="12">
+        <v>33</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="12">
+        <v>33</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E36" s="12">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="12">
+        <v>34</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E37" s="12">
+        <v>35</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="12">
+        <v>35</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E38" s="12">
+        <v>36</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="12">
+        <v>36</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E39" s="12">
+        <v>37</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="12">
+        <v>37</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E40" s="12">
+        <v>38</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="12">
+        <v>38</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E41" s="12">
+        <v>39</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="12">
+        <v>39</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E42" s="12">
+        <v>40</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="12">
+        <v>40</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E43" s="12">
+        <v>41</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="12">
+        <v>41</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E44" s="12">
+        <v>42</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="12">
+        <v>42</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E45" s="12">
+        <v>43</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="12">
+        <v>43</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E46" s="12">
+        <v>44</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="12">
+        <v>44</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E47" s="12">
+        <v>45</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="12">
+        <v>45</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E48" s="12">
+        <v>46</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="12">
+        <v>46</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E49" s="12">
+        <v>47</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="12">
+        <v>47</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E50" s="12">
+        <v>48</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="12">
+        <v>48</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E51" s="12">
+        <v>49</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="12">
+        <v>49</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E52" s="12">
+        <v>50</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="12">
+        <v>50</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E53" s="12">
+        <v>51</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="12">
+        <v>51</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E54" s="12">
+        <v>52</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="12">
+        <v>52</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E55" s="12">
+        <v>53</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="12">
+        <v>53</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E56" s="12">
+        <v>54</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="12">
+        <v>54</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E57" s="12">
+        <v>55</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="12">
+        <v>55</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E58" s="12">
+        <v>56</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="12">
+        <v>56</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E59" s="12">
+        <v>57</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="12">
+        <v>57</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E60" s="12">
+        <v>58</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="12">
+        <v>58</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="E61" s="12">
+        <v>59</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="12">
+        <v>59</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E62" s="12">
+        <v>60</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62" s="12">
+        <v>60</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E63" s="12">
+        <v>61</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="12">
+        <v>61</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E64" s="12">
+        <v>62</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="12">
+        <v>62</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E65" s="12">
+        <v>63</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="E66" s="12">
+        <v>64</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E67" s="12">
+        <v>65</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E68" s="12">
+        <v>66</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +2528,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +2536,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +2544,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +2552,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +2560,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +2568,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +2576,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +2584,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +2592,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +2600,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +2608,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +2616,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +2624,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +2632,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +2640,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1869,109 +2699,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -1981,7 +2815,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -1991,7 +2825,7 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -2001,7 +2835,7 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="10">
         <v>18</v>
@@ -2012,7 +2846,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10">
         <v>5</v>
@@ -2022,7 +2856,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -2032,7 +2866,7 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11">
         <v>2</v>
@@ -2042,7 +2876,7 @@
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="11">
         <v>3</v>
@@ -2053,7 +2887,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10">
         <v>9</v>
@@ -2063,7 +2897,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="10">
         <v>3</v>
@@ -2073,7 +2907,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="11">
         <v>2</v>
@@ -2083,7 +2917,7 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="11">
         <v>7</v>
@@ -2094,7 +2928,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -2104,7 +2938,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -2114,7 +2948,7 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -2124,7 +2958,7 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="11">
         <v>6</v>
@@ -2135,7 +2969,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="10">
         <v>8</v>
@@ -2145,7 +2979,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -2155,7 +2989,7 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -2165,7 +2999,7 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="11">
         <v>1</v>
@@ -2176,7 +3010,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -2186,7 +3020,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -2196,7 +3030,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="10">
         <v>1</v>
@@ -2206,7 +3040,7 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" s="10">
         <v>1</v>
@@ -2217,7 +3051,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="10">
         <v>4</v>
@@ -2227,7 +3061,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10">
         <v>10</v>
@@ -2237,7 +3071,7 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="10">
         <v>11</v>
@@ -2247,7 +3081,7 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="10">
         <v>8</v>
@@ -2258,7 +3092,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10">
         <v>4</v>
@@ -2268,7 +3102,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="11">
         <v>1</v>
@@ -2278,7 +3112,7 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="10">
         <v>3</v>
@@ -2288,7 +3122,7 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N11" s="10">
         <v>11</v>
@@ -2299,7 +3133,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="10">
         <v>3</v>
@@ -2309,7 +3143,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10">
         <v>14</v>
@@ -2319,7 +3153,7 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="10">
         <v>1</v>
@@ -2329,7 +3163,7 @@
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="11">
         <v>0</v>
@@ -2340,7 +3174,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -2350,7 +3184,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -2360,7 +3194,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -2370,7 +3204,7 @@
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="11">
         <v>0</v>
@@ -2381,7 +3215,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
@@ -2391,7 +3225,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -2401,7 +3235,7 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="10">
         <v>3</v>
@@ -2411,7 +3245,7 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="10">
         <v>3</v>
@@ -2422,7 +3256,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
@@ -2432,7 +3266,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10">
         <v>2</v>
@@ -2442,7 +3276,7 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="10">
         <v>0</v>
@@ -2452,7 +3286,7 @@
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15" s="11">
         <v>9</v>
@@ -2463,7 +3297,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="10">
         <v>3</v>
@@ -2473,7 +3307,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="10">
         <v>7</v>
@@ -2483,7 +3317,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
@@ -2493,7 +3327,7 @@
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N16" s="10">
         <v>2</v>
@@ -2504,7 +3338,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -2514,7 +3348,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="10">
         <v>2</v>
@@ -2524,7 +3358,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -2534,7 +3368,7 @@
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="10">
         <v>24</v>
@@ -2545,7 +3379,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="10">
         <v>0</v>
@@ -2555,7 +3389,7 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="10">
         <v>5</v>
@@ -2565,7 +3399,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -2575,7 +3409,7 @@
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N18" s="10">
         <v>4</v>
@@ -2586,7 +3420,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="10">
         <v>6</v>
@@ -2596,7 +3430,7 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="11">
         <v>46</v>
@@ -2606,7 +3440,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -2616,7 +3450,7 @@
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N19" s="10">
         <v>13</v>
@@ -2627,7 +3461,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="10">
         <v>0</v>
@@ -2641,7 +3475,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="10">
         <v>4</v>
@@ -2651,7 +3485,7 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N20" s="10">
         <v>0</v>
@@ -2662,7 +3496,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="10">
         <v>3</v>
@@ -2676,7 +3510,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J21" s="10">
         <v>1</v>
@@ -2686,7 +3520,7 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="10">
         <v>110</v>
@@ -2697,7 +3531,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="10">
         <v>53</v>
@@ -2711,7 +3545,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="11">
         <v>0</v>
@@ -2734,7 +3568,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="11">
         <v>2</v>
@@ -2757,7 +3591,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="11">
         <v>1</v>
@@ -2780,7 +3614,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="11">
         <v>0</v>
@@ -2803,7 +3637,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="10">
         <v>4</v>
@@ -2826,7 +3660,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27" s="10">
         <v>2</v>
@@ -2849,7 +3683,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J28" s="10">
         <v>2</v>
@@ -2872,7 +3706,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="11">
         <v>0</v>
@@ -2895,7 +3729,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" s="11">
         <v>6</v>
@@ -2918,7 +3752,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" s="10">
         <v>4</v>
@@ -2941,7 +3775,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -2964,7 +3798,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J33" s="11">
         <v>4</v>
@@ -2987,7 +3821,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -3010,7 +3844,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" s="10">
         <v>6</v>
@@ -3033,7 +3867,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J36" s="10">
         <v>10</v>
@@ -3056,7 +3890,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J37" s="10">
         <v>5</v>
@@ -3079,7 +3913,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J38" s="10">
         <v>2</v>
@@ -3102,7 +3936,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -3125,7 +3959,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J40" s="11">
         <v>3</v>
@@ -3148,7 +3982,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J41" s="11">
         <v>0</v>
@@ -3171,7 +4005,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J42" s="11">
         <v>4</v>
@@ -3194,7 +4028,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="10">
         <v>88</v>
@@ -3208,915 +4042,1313 @@
       <c r="O43" s="11"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A45" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="14">
+        <v>12</v>
+      </c>
+      <c r="C47" s="14">
+        <v>47</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="14">
+        <v>7</v>
+      </c>
+      <c r="G47" s="14">
+        <v>86</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="14">
+        <v>6</v>
+      </c>
+      <c r="K47" s="14">
+        <v>84</v>
+      </c>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="N47" s="14">
+        <v>20</v>
+      </c>
+      <c r="O47" s="14">
+        <v>71</v>
+      </c>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="15">
+        <v>7</v>
+      </c>
+      <c r="C48" s="15">
+        <v>61</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="14">
+        <v>8</v>
+      </c>
+      <c r="G48" s="14">
+        <v>76</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="15">
+        <v>9</v>
+      </c>
+      <c r="K48" s="15">
+        <v>36</v>
+      </c>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48" s="15">
+        <v>5</v>
+      </c>
+      <c r="O48" s="15">
+        <v>60</v>
+      </c>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="14">
+        <v>7</v>
+      </c>
+      <c r="C49" s="14">
+        <v>31</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="14">
+        <v>2</v>
+      </c>
+      <c r="G49" s="14">
+        <v>45</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="14">
+        <v>4</v>
+      </c>
+      <c r="K49" s="14">
+        <v>43</v>
+      </c>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>11</v>
+      </c>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="14">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14">
+        <v>11</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="15">
+        <v>3</v>
+      </c>
+      <c r="G50" s="15">
+        <v>12</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="14">
+        <v>9</v>
+      </c>
+      <c r="K50" s="14">
+        <v>27</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14">
+        <v>7</v>
+      </c>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="14">
+        <v>2</v>
+      </c>
+      <c r="C51" s="14">
+        <v>6</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <v>7</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" s="14">
+        <v>6</v>
+      </c>
+      <c r="K51" s="14">
+        <v>27</v>
+      </c>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>5</v>
+      </c>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="14">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14">
+        <v>8</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
+        <v>2</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" s="14">
+        <v>3</v>
+      </c>
+      <c r="K52" s="14">
+        <v>26</v>
+      </c>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+      <c r="O52" s="15">
+        <v>2</v>
+      </c>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1</v>
+      </c>
+      <c r="C53" s="14">
+        <v>5</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>2</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="15">
+        <v>2</v>
+      </c>
+      <c r="K53" s="15">
+        <v>25</v>
+      </c>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>2</v>
+      </c>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="14">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
+        <v>8</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J54" s="14">
+        <v>3</v>
+      </c>
+      <c r="K54" s="14">
+        <v>18</v>
+      </c>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" s="14">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <v>1</v>
+      </c>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1</v>
+      </c>
+      <c r="C55" s="14">
+        <v>4</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J55" s="15">
+        <v>3</v>
+      </c>
+      <c r="K55" s="15">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>1</v>
+      </c>
+      <c r="P55" s="13"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="14">
+        <v>2</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="15">
+        <v>3</v>
+      </c>
+      <c r="K56" s="15">
+        <v>14</v>
+      </c>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="N56" s="14">
+        <v>0</v>
+      </c>
+      <c r="O56" s="14">
+        <v>1</v>
+      </c>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="14">
+        <v>1</v>
+      </c>
+      <c r="C57" s="14">
+        <v>4</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" s="14">
+        <v>1</v>
+      </c>
+      <c r="K57" s="14">
+        <v>13</v>
+      </c>
+      <c r="L57" s="13"/>
+      <c r="M57" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N57" s="14">
+        <v>0</v>
+      </c>
+      <c r="O57" s="14">
+        <v>1</v>
+      </c>
+      <c r="P57" s="13"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="14">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14">
+        <v>5</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="14">
+        <v>3</v>
+      </c>
+      <c r="K58" s="14">
+        <v>3</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="15" t="s">
+      <c r="N58" s="14">
+        <v>25</v>
+      </c>
+      <c r="O58" s="14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1</v>
+      </c>
+      <c r="C59" s="14">
+        <v>1</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="14">
+        <v>20</v>
+      </c>
+      <c r="G59" s="14">
+        <v>235</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
+        <v>10</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14">
+        <v>8</v>
+      </c>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>4</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="15">
+        <v>2</v>
+      </c>
+      <c r="K61" s="15">
+        <v>1</v>
+      </c>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="14">
+        <v>1</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="14">
+        <v>1</v>
+      </c>
+      <c r="K62" s="14">
+        <v>4</v>
+      </c>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="14">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <v>3</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="14">
+        <v>0</v>
+      </c>
+      <c r="K63" s="14">
+        <v>5</v>
+      </c>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="14">
+        <v>0</v>
+      </c>
+      <c r="C64" s="14">
+        <v>2</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J64" s="14">
+        <v>1</v>
+      </c>
+      <c r="K64" s="14">
+        <v>1</v>
+      </c>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J65" s="14">
+        <v>1</v>
+      </c>
+      <c r="K65" s="14">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="14">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="14">
+        <v>2</v>
+      </c>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="15">
+        <v>0</v>
+      </c>
+      <c r="C67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" s="15">
+        <v>0</v>
+      </c>
+      <c r="K67" s="15">
+        <v>2</v>
+      </c>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="14">
+        <v>39</v>
+      </c>
+      <c r="C68" s="14">
+        <v>206</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" s="15">
+        <v>0</v>
+      </c>
+      <c r="K68" s="15">
+        <v>2</v>
+      </c>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="14">
+        <v>1</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="14">
+        <v>57</v>
+      </c>
+      <c r="K70" s="14">
+        <v>370</v>
+      </c>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="D73" s="18"/>
+      <c r="E73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="18"/>
+      <c r="M73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="19">
+        <v>0</v>
+      </c>
+      <c r="C74" s="19">
+        <v>2</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="19">
+        <v>1</v>
+      </c>
+      <c r="G74" s="19">
+        <v>3</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="20">
+        <v>0</v>
+      </c>
+      <c r="K74" s="20">
+        <v>10</v>
+      </c>
+      <c r="L74" s="18"/>
+      <c r="M74" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N74" s="20">
+        <v>0</v>
+      </c>
+      <c r="O74" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="15" t="s">
+      <c r="B75" s="19">
+        <v>0</v>
+      </c>
+      <c r="C75" s="19">
+        <v>2</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="19">
+        <v>0</v>
+      </c>
+      <c r="G75" s="19">
+        <v>7</v>
+      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J75" s="20">
+        <v>4</v>
+      </c>
+      <c r="K75" s="20">
+        <v>19</v>
+      </c>
+      <c r="L75" s="18"/>
+      <c r="M75" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N75" s="20">
+        <v>0</v>
+      </c>
+      <c r="O75" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="19">
+        <v>1</v>
+      </c>
+      <c r="G76" s="19">
+        <v>11</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J76" s="19">
+        <v>0</v>
+      </c>
+      <c r="K76" s="19">
+        <v>5</v>
+      </c>
+      <c r="L76" s="18"/>
+      <c r="M76" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="N76" s="20">
+        <v>0</v>
+      </c>
+      <c r="O76" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" s="15" t="s">
+      <c r="F77" s="19">
+        <v>2</v>
+      </c>
+      <c r="G77" s="19">
+        <v>21</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J77" s="19">
+        <v>1</v>
+      </c>
+      <c r="K77" s="19">
+        <v>0</v>
+      </c>
+      <c r="L77" s="18"/>
+      <c r="M77" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N77" s="20">
+        <v>0</v>
+      </c>
+      <c r="O77" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="19">
+        <v>0</v>
+      </c>
+      <c r="K78" s="19">
+        <v>3</v>
+      </c>
+      <c r="L78" s="18"/>
+      <c r="M78" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N78" s="19">
+        <v>3</v>
+      </c>
+      <c r="O78" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J79" s="19">
+        <v>5</v>
+      </c>
+      <c r="K79" s="19">
+        <v>26</v>
+      </c>
+      <c r="L79" s="18"/>
+      <c r="M79" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N79" s="19">
+        <v>1</v>
+      </c>
+      <c r="O79" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J80" s="19">
+        <v>1</v>
+      </c>
+      <c r="K80" s="19">
+        <v>12</v>
+      </c>
+      <c r="L80" s="18"/>
+      <c r="M80" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N80" s="19">
+        <v>0</v>
+      </c>
+      <c r="O80" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J81" s="19">
+        <v>1</v>
+      </c>
+      <c r="K81" s="19">
+        <v>1</v>
+      </c>
+      <c r="L81" s="18"/>
+      <c r="M81" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="15">
-        <v>12</v>
-      </c>
-      <c r="C47" s="15">
-        <v>47</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="15">
-        <v>7</v>
-      </c>
-      <c r="G47" s="15">
-        <v>86</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="15">
-        <v>6</v>
-      </c>
-      <c r="K47" s="15">
-        <v>84</v>
-      </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="N47" s="15">
-        <v>20</v>
-      </c>
-      <c r="O47" s="15">
-        <v>71</v>
-      </c>
-      <c r="P47" s="14"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="16">
-        <v>7</v>
-      </c>
-      <c r="C48" s="16">
-        <v>61</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="15">
-        <v>8</v>
-      </c>
-      <c r="G48" s="15">
-        <v>76</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="16">
-        <v>9</v>
-      </c>
-      <c r="K48" s="16">
-        <v>36</v>
-      </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N48" s="16">
-        <v>5</v>
-      </c>
-      <c r="O48" s="16">
-        <v>60</v>
-      </c>
-      <c r="P48" s="14"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="15">
-        <v>7</v>
-      </c>
-      <c r="C49" s="15">
-        <v>31</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="15">
+      <c r="N81" s="20">
+        <v>4</v>
+      </c>
+      <c r="O81" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" s="19">
+        <v>0</v>
+      </c>
+      <c r="K82" s="19">
+        <v>1</v>
+      </c>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J83" s="19">
         <v>2</v>
       </c>
-      <c r="G49" s="15">
-        <v>45</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="15">
-        <v>4</v>
-      </c>
-      <c r="K49" s="15">
-        <v>43</v>
-      </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N49" s="16">
-        <v>0</v>
-      </c>
-      <c r="O49" s="16">
-        <v>11</v>
-      </c>
-      <c r="P49" s="14"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="15">
-        <v>2</v>
-      </c>
-      <c r="C50" s="15">
-        <v>11</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="16">
-        <v>3</v>
-      </c>
-      <c r="G50" s="16">
-        <v>12</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50" s="15">
-        <v>9</v>
-      </c>
-      <c r="K50" s="15">
-        <v>27</v>
-      </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="N50" s="15">
-        <v>0</v>
-      </c>
-      <c r="O50" s="15">
-        <v>7</v>
-      </c>
-      <c r="P50" s="14"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="15">
-        <v>2</v>
-      </c>
-      <c r="C51" s="15">
-        <v>6</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="15">
-        <v>0</v>
-      </c>
-      <c r="G51" s="15">
-        <v>7</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J51" s="15">
-        <v>6</v>
-      </c>
-      <c r="K51" s="15">
-        <v>27</v>
-      </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N51" s="16">
-        <v>0</v>
-      </c>
-      <c r="O51" s="16">
-        <v>5</v>
-      </c>
-      <c r="P51" s="14"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="15">
-        <v>1</v>
-      </c>
-      <c r="C52" s="15">
-        <v>8</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="15">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <v>2</v>
-      </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="J52" s="15">
-        <v>3</v>
-      </c>
-      <c r="K52" s="15">
-        <v>26</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N52" s="16">
-        <v>0</v>
-      </c>
-      <c r="O52" s="16">
-        <v>2</v>
-      </c>
-      <c r="P52" s="14"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="15">
-        <v>1</v>
-      </c>
-      <c r="C53" s="15">
-        <v>5</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
-        <v>2</v>
-      </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="16">
-        <v>2</v>
-      </c>
-      <c r="K53" s="16">
-        <v>25</v>
-      </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N53" s="16">
-        <v>0</v>
-      </c>
-      <c r="O53" s="16">
-        <v>2</v>
-      </c>
-      <c r="P53" s="14"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
-      <c r="C54" s="15">
-        <v>8</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="15">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15">
-        <v>1</v>
-      </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J54" s="15">
-        <v>3</v>
-      </c>
-      <c r="K54" s="15">
-        <v>18</v>
-      </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N54" s="15">
-        <v>0</v>
-      </c>
-      <c r="O54" s="15">
-        <v>1</v>
-      </c>
-      <c r="P54" s="14"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="15">
-        <v>1</v>
-      </c>
-      <c r="C55" s="15">
-        <v>4</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="15">
-        <v>0</v>
-      </c>
-      <c r="G55" s="15">
-        <v>1</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" s="16">
-        <v>3</v>
-      </c>
-      <c r="K55" s="16">
-        <v>18</v>
-      </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N55" s="16">
-        <v>0</v>
-      </c>
-      <c r="O55" s="16">
-        <v>1</v>
-      </c>
-      <c r="P55" s="14"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="15">
-        <v>2</v>
-      </c>
-      <c r="C56" s="15">
-        <v>1</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="15">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" s="16">
-        <v>3</v>
-      </c>
-      <c r="K56" s="16">
+      <c r="K83" s="19">
+        <v>1</v>
+      </c>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="20">
         <v>14</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="N56" s="15">
-        <v>0</v>
-      </c>
-      <c r="O56" s="15">
-        <v>1</v>
-      </c>
-      <c r="P56" s="14"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" s="15">
-        <v>1</v>
-      </c>
-      <c r="C57" s="15">
-        <v>4</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="15">
-        <v>0</v>
-      </c>
-      <c r="G57" s="15">
-        <v>1</v>
-      </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J57" s="15">
-        <v>1</v>
-      </c>
-      <c r="K57" s="15">
-        <v>13</v>
-      </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="N57" s="15">
-        <v>0</v>
-      </c>
-      <c r="O57" s="15">
-        <v>1</v>
-      </c>
-      <c r="P57" s="14"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
-        <v>5</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58" s="15">
-        <v>0</v>
-      </c>
-      <c r="G58" s="15">
-        <v>1</v>
-      </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J58" s="15">
-        <v>3</v>
-      </c>
-      <c r="K58" s="15">
-        <v>3</v>
-      </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="15">
-        <v>25</v>
-      </c>
-      <c r="O58" s="15">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="15">
-        <v>1</v>
-      </c>
-      <c r="C59" s="15">
-        <v>1</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="15">
-        <v>20</v>
-      </c>
-      <c r="G59" s="15">
-        <v>235</v>
-      </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="15">
-        <v>0</v>
-      </c>
-      <c r="K59" s="15">
-        <v>10</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="15">
-        <v>1</v>
-      </c>
-      <c r="C60" s="15">
-        <v>1</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J60" s="15">
-        <v>0</v>
-      </c>
-      <c r="K60" s="15">
-        <v>8</v>
-      </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
-        <v>4</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J61" s="16">
-        <v>2</v>
-      </c>
-      <c r="K61" s="16">
-        <v>1</v>
-      </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="15">
-        <v>1</v>
-      </c>
-      <c r="C62" s="15">
-        <v>1</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J62" s="15">
-        <v>1</v>
-      </c>
-      <c r="K62" s="15">
-        <v>4</v>
-      </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="15">
-        <v>0</v>
-      </c>
-      <c r="C63" s="15">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" s="15">
-        <v>0</v>
-      </c>
-      <c r="K63" s="15">
-        <v>5</v>
-      </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="15">
-        <v>0</v>
-      </c>
-      <c r="C64" s="15">
-        <v>2</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J64" s="15">
-        <v>1</v>
-      </c>
-      <c r="K64" s="15">
-        <v>1</v>
-      </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="15">
-        <v>0</v>
-      </c>
-      <c r="C65" s="15">
-        <v>1</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J65" s="15">
-        <v>1</v>
-      </c>
-      <c r="K65" s="15">
-        <v>0</v>
-      </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="15">
-        <v>0</v>
-      </c>
-      <c r="C66" s="15">
-        <v>1</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="J66" s="15">
-        <v>0</v>
-      </c>
-      <c r="K66" s="15">
-        <v>2</v>
-      </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="16">
-        <v>0</v>
-      </c>
-      <c r="C67" s="16">
-        <v>1</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J67" s="16">
-        <v>0</v>
-      </c>
-      <c r="K67" s="16">
-        <v>2</v>
-      </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="15">
-        <v>39</v>
-      </c>
-      <c r="C68" s="15">
-        <v>206</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J68" s="16">
-        <v>0</v>
-      </c>
-      <c r="K68" s="16">
-        <v>2</v>
-      </c>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J69" s="15">
-        <v>0</v>
-      </c>
-      <c r="K69" s="15">
-        <v>1</v>
-      </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="15">
-        <v>57</v>
-      </c>
-      <c r="K70" s="15">
-        <v>370</v>
-      </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
+      <c r="K84" s="20">
+        <v>78</v>
+      </c>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
     </row>
   </sheetData>
   <sortState ref="E47:H58">
     <sortCondition descending="1" ref="H47:H58"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A72:O72"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -4166,42 +5398,42 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(帮战总榜!A$1:O$151,$A2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:D2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3">
         <f>IF($E2&gt;6,6,$E2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3">
         <f>SUM(G2:G140)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E140)-I2</f>
@@ -4218,7 +5450,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,13 +5483,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -4319,14 +5551,14 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -4399,13 +5631,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -4448,13 +5680,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>('逐梦-箱子'!$I$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <f>('如梦-箱子'!$I$2)</f>
@@ -4470,7 +5702,7 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(A2:D2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/6.06-6.12.xlsx
+++ b/6.06-6.12.xlsx
@@ -747,18 +747,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -1058,31 +1058,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,45 +2722,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4042,23 +4042,23 @@
       <c r="O43" s="11"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
@@ -4947,401 +4947,401 @@
       <c r="O70" s="15"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="19" t="s">
+      <c r="A73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="19" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J73" s="19" t="s">
+      <c r="H73" s="16"/>
+      <c r="I73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="19" t="s">
+      <c r="K73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" s="19" t="s">
+      <c r="L73" s="16"/>
+      <c r="M73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O73" s="19" t="s">
+      <c r="O73" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="19">
-        <v>0</v>
-      </c>
-      <c r="C74" s="19">
+      <c r="B74" s="17">
+        <v>0</v>
+      </c>
+      <c r="C74" s="17">
         <v>2</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="16"/>
+      <c r="E74" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="19">
-        <v>1</v>
-      </c>
-      <c r="G74" s="19">
+      <c r="F74" s="17">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17">
         <v>3</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19" t="s">
+      <c r="H74" s="16"/>
+      <c r="I74" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="20">
-        <v>0</v>
-      </c>
-      <c r="K74" s="20">
+      <c r="J74" s="18">
+        <v>0</v>
+      </c>
+      <c r="K74" s="18">
         <v>10</v>
       </c>
-      <c r="L74" s="18"/>
-      <c r="M74" s="19" t="s">
+      <c r="L74" s="16"/>
+      <c r="M74" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N74" s="20">
-        <v>0</v>
-      </c>
-      <c r="O74" s="20">
+      <c r="N74" s="18">
+        <v>0</v>
+      </c>
+      <c r="O74" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="19">
-        <v>0</v>
-      </c>
-      <c r="C75" s="19">
+      <c r="B75" s="17">
+        <v>0</v>
+      </c>
+      <c r="C75" s="17">
         <v>2</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="16"/>
+      <c r="E75" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="19">
-        <v>0</v>
-      </c>
-      <c r="G75" s="19">
+      <c r="F75" s="17">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17">
         <v>7</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="19" t="s">
+      <c r="H75" s="16"/>
+      <c r="I75" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="18">
         <v>4</v>
       </c>
-      <c r="K75" s="20">
+      <c r="K75" s="18">
         <v>19</v>
       </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="19" t="s">
+      <c r="L75" s="16"/>
+      <c r="M75" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="N75" s="20">
-        <v>0</v>
-      </c>
-      <c r="O75" s="20">
+      <c r="N75" s="18">
+        <v>0</v>
+      </c>
+      <c r="O75" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="19" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F76" s="19">
-        <v>1</v>
-      </c>
-      <c r="G76" s="19">
+      <c r="F76" s="17">
+        <v>1</v>
+      </c>
+      <c r="G76" s="17">
         <v>11</v>
       </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="19" t="s">
+      <c r="H76" s="16"/>
+      <c r="I76" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J76" s="19">
-        <v>0</v>
-      </c>
-      <c r="K76" s="19">
+      <c r="J76" s="17">
+        <v>0</v>
+      </c>
+      <c r="K76" s="17">
         <v>5</v>
       </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="19" t="s">
+      <c r="L76" s="16"/>
+      <c r="M76" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N76" s="20">
-        <v>0</v>
-      </c>
-      <c r="O76" s="20">
+      <c r="N76" s="18">
+        <v>0</v>
+      </c>
+      <c r="O76" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="19" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="17">
         <v>2</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G77" s="17">
         <v>21</v>
       </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="19" t="s">
+      <c r="H77" s="16"/>
+      <c r="I77" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J77" s="19">
-        <v>1</v>
-      </c>
-      <c r="K77" s="19">
-        <v>0</v>
-      </c>
-      <c r="L77" s="18"/>
-      <c r="M77" s="19" t="s">
+      <c r="J77" s="17">
+        <v>1</v>
+      </c>
+      <c r="K77" s="17">
+        <v>0</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="M77" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="N77" s="20">
-        <v>0</v>
-      </c>
-      <c r="O77" s="20">
+      <c r="N77" s="18">
+        <v>0</v>
+      </c>
+      <c r="O77" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="19" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J78" s="19">
-        <v>0</v>
-      </c>
-      <c r="K78" s="19">
+      <c r="J78" s="17">
+        <v>0</v>
+      </c>
+      <c r="K78" s="17">
         <v>3</v>
       </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="19" t="s">
+      <c r="L78" s="16"/>
+      <c r="M78" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N78" s="17">
         <v>3</v>
       </c>
-      <c r="O78" s="19">
+      <c r="O78" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="19" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J79" s="17">
         <v>5</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="17">
         <v>26</v>
       </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="19" t="s">
+      <c r="L79" s="16"/>
+      <c r="M79" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N79" s="19">
-        <v>1</v>
-      </c>
-      <c r="O79" s="19">
+      <c r="N79" s="17">
+        <v>1</v>
+      </c>
+      <c r="O79" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="19" t="s">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J80" s="19">
-        <v>1</v>
-      </c>
-      <c r="K80" s="19">
+      <c r="J80" s="17">
+        <v>1</v>
+      </c>
+      <c r="K80" s="17">
         <v>12</v>
       </c>
-      <c r="L80" s="18"/>
-      <c r="M80" s="19" t="s">
+      <c r="L80" s="16"/>
+      <c r="M80" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N80" s="19">
-        <v>0</v>
-      </c>
-      <c r="O80" s="19">
+      <c r="N80" s="17">
+        <v>0</v>
+      </c>
+      <c r="O80" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="19" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J81" s="19">
-        <v>1</v>
-      </c>
-      <c r="K81" s="19">
-        <v>1</v>
-      </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="19" t="s">
+      <c r="J81" s="17">
+        <v>1</v>
+      </c>
+      <c r="K81" s="17">
+        <v>1</v>
+      </c>
+      <c r="L81" s="16"/>
+      <c r="M81" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N81" s="20">
+      <c r="N81" s="18">
         <v>4</v>
       </c>
-      <c r="O81" s="20">
+      <c r="O81" s="18">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="19" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="J82" s="19">
-        <v>0</v>
-      </c>
-      <c r="K82" s="19">
-        <v>1</v>
-      </c>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
+      <c r="J82" s="17">
+        <v>0</v>
+      </c>
+      <c r="K82" s="17">
+        <v>1</v>
+      </c>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="19" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J83" s="17">
         <v>2</v>
       </c>
-      <c r="K83" s="19">
-        <v>1</v>
-      </c>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
+      <c r="K83" s="17">
+        <v>1</v>
+      </c>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="19" t="s">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="18">
         <v>14</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="18">
         <v>78</v>
       </c>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
     </row>
   </sheetData>
   <sortState ref="E47:H58">
@@ -5595,7 +5595,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
